--- a/biology/Médecine/Auguste-Donat_De_Hemptinne/Auguste-Donat_De_Hemptinne.xlsx
+++ b/biology/Médecine/Auguste-Donat_De_Hemptinne/Auguste-Donat_De_Hemptinne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Auguste-Donat De Hemptinne ou Dehemptinne, né le 15 août 1781 à Jauche et mort en 1854 à Bruxelles, est un pharmacien, professeur à l'Université libre de Bruxelles et industriel belge.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Auguste-Donat commence ses études secondaires au collège de Tirlemont puis à celui de la Sainte-Trinité à Louvain qui dut fermer ses portes en 1797 à la suite de la réforme de l'enseignement dans la République française où désormais l'État prenait en charge l'enseignement.
 Dehemptinne entra alors comme apprenti chez un apothicaire liégeois puis repris des études à Bruxelles à l'École centrale du département de la Dyle, héritière officielle et continuatrice de l'ancienne université de Louvain, tout en étant apprenti chez l'apothicaire Jambers lui permettant de payer ses études. À l'École Centrale, il fut remarqué par le savant Jean-Baptiste Van Mons, qui le recommanda auprès de maîtres éminents Fourcroy, Vauquelin, Bouillon-Lagrange et Bory de Saint-Vincent dont il suivit les cours à Paris.
@@ -549,9 +563,11 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils de Jeanne-Françoise Drouin et de Jean-Lambert De Hemptinne, chef mayeur de la baronnie de Jauche et mayeur de sept autres seigneuries sous l'Ancien Régime puis notaire le 30 mai 1765. Ses frères sont tous diplômés en droit ou en médecine et le cadet de la famille Félix-Joseph à la suite de son mariage avec Henriette Lousbergs[1], fille d'Hubert Lousbergs un important industriel du textile, s'installe à Gand et reprend, après la mort de son beau-père et de son beau-frère Henri Lousbergs[2] en 1827, leur société cotonière, et établira ensuite la « S. A. de la Lys » après avoir hérité, après la mort de son autre beau-frère Ferdinand Lousbergs en 1859, de l'ensemble de leur patrimoine industriel.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils de Jeanne-Françoise Drouin et de Jean-Lambert De Hemptinne, chef mayeur de la baronnie de Jauche et mayeur de sept autres seigneuries sous l'Ancien Régime puis notaire le 30 mai 1765. Ses frères sont tous diplômés en droit ou en médecine et le cadet de la famille Félix-Joseph à la suite de son mariage avec Henriette Lousbergs, fille d'Hubert Lousbergs un important industriel du textile, s'installe à Gand et reprend, après la mort de son beau-père et de son beau-frère Henri Lousbergs en 1827, leur société cotonière, et établira ensuite la « S. A. de la Lys » après avoir hérité, après la mort de son autre beau-frère Ferdinand Lousbergs en 1859, de l'ensemble de leur patrimoine industriel.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Ses publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1818 : Mémoire sur la question de savoir quelles sont les applications que l'on peut faire dans nos fabriques et dans l'économie domestique de la vapeur d'eau employée comme moyen d'échauffement.
 Description d'un appareil propre à enlever à l'air atmosphérique les substances qui le rendent nuisibles à la respiration.
